--- a/keyboard label 10x10mm.xlsx
+++ b/keyboard label 10x10mm.xlsx
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +228,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -294,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +317,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,7 +1169,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,40 +1367,40 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1392,34 +1411,34 @@
     </row>
     <row r="7" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="2"/>
@@ -1431,40 +1450,40 @@
     </row>
     <row r="8" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1474,25 +1493,25 @@
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
